--- a/biology/Zoologie/Corasoides_terania/Corasoides_terania.xlsx
+++ b/biology/Zoologie/Corasoides_terania/Corasoides_terania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corasoides terania est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corasoides terania est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud vers les parcs des Border Ranges, de Wollumbin et de Nightcap et au Queensland vers le parc national de Lamington[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud vers les parcs des Border Ranges, de Wollumbin et de Nightcap et au Queensland vers le parc national de Lamington.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,6 mm de long sur 4,4 mm et l'abdomen 5,5 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 5,3 mm de long sur 4,3 mm et l'abdomen 8,5 mm de long sur 4,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,6 mm de long sur 4,4 mm et l'abdomen 5,5 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 5,3 mm de long sur 4,3 mm et l'abdomen 8,5 mm de long sur 4,1 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Terania Creek.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Humphrey, 2017 : A revision and cladistic analysis of the genus Corasoides Butler (Araneae: Desidae) with descriptions of nine new species. Records of the Australian Museum, vol. 69, no 1, p. 15-64 (texte intégral).</t>
         </is>
